--- a/database/csv/periodicities.xlsx
+++ b/database/csv/periodicities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\new_gmao\database\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C29E472-1981-43DF-B398-76874F2A8BF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888FAD7D-A8D3-457B-8F23-A261A464BE0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>A semi-annually task. Runs twice a year.</t>
   </si>
   <si>
-    <t>Annual</t>
-  </si>
-  <si>
     <t>A yearly task. Runs every 1 years.</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Semestrial</t>
+  </si>
+  <si>
+    <t>Yearly</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,13 +532,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -552,16 +552,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -572,16 +572,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>2</v>
